--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1017.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1017.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.176620221903123</v>
+        <v>1.527590990066528</v>
       </c>
       <c r="B1">
-        <v>3.276031957067748</v>
+        <v>2.078694581985474</v>
       </c>
       <c r="C1">
-        <v>3.709197071061252</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>2.148466422945255</v>
+        <v>1.398326873779297</v>
       </c>
       <c r="E1">
-        <v>1.033457158810628</v>
+        <v>0.6538167595863342</v>
       </c>
     </row>
   </sheetData>
